--- a/Config/Driver.xlsx
+++ b/Config/Driver.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\Documents\Unified Functional Testing\man\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thispc\branchgit\TestUFT\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F704116F-2B0C-4408-B56D-B4A8941CC432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D524DD3C-18C7-406F-BD7A-DB38E52193FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00854CA0-034C-4F65-87B9-E4738A90A198}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Yes</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>SeachBook</t>
+  </si>
+  <si>
+    <t>TC3</t>
   </si>
 </sst>
 </file>
@@ -105,9 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBCA268-D6B2-4637-AC93-5CC2CB53B019}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +478,17 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
